--- a/biology/Botanique/Najas_marina_subsp._arsenariensis/Najas_marina_subsp._arsenariensis.xlsx
+++ b/biology/Botanique/Najas_marina_subsp._arsenariensis/Najas_marina_subsp._arsenariensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Najas marina subsp. arsenariensis est une  sous-espèce de Najas marina.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>L'holotype est hébergé à l'herbier de Montpellier et consultable en ligne.
 Appareil végétatif : plante annuelle, totalement submergée. Tiges grêles (0,50 mm de diam.).
@@ -544,7 +558,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce taxon est une endémique algérienne. Une seule station est connue, au Lac Melah.
 </t>
@@ -575,9 +591,11 @@
           <t>Statut taxonomique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Maire, en 1941, tout en soulignant l'insuffisance du matériel, s'était résolu à proposer une espèce[2]. Mais Ludwig Triest, en 1988, dans sa révision du genre Najas, a considéré ce taxon comme une sous-espèce.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Maire, en 1941, tout en soulignant l'insuffisance du matériel, s'était résolu à proposer une espèce. Mais Ludwig Triest, en 1988, dans sa révision du genre Najas, a considéré ce taxon comme une sous-espèce.
 </t>
         </is>
       </c>
@@ -606,7 +624,9 @@
           <t>Statut de protection</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Selon l'UICN, 2012, les populations sont rares, isolées et fragmentées. Elles sont menacées par diverses pressions anthropiques : urbanisation, eutrophisation de l'eau, pollution due à l'industrie pétrolière et à l'agriculture. Voila pourquoi l'UICN lui attribue la menace la plus forte.
 C'est une plante protégée en Algérie.
